--- a/Ficheros/Soluciones.xlsx
+++ b/Ficheros/Soluciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SAGEMath\MASI\Ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33FC209-5E3C-4851-ABBB-EC79B781CF97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9386BC8D-3545-479C-87BC-42E1E2B2B615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6650" yWindow="2620" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
+    <workbookView xWindow="19070" yWindow="1710" windowWidth="19040" windowHeight="17800" activeTab="2" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
   </bookViews>
   <sheets>
     <sheet name="North-West Method" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="114">
   <si>
     <t>&gt;= 15</t>
   </si>
@@ -185,9 +185,6 @@
     <t xml:space="preserve">PASO 8 </t>
   </si>
   <si>
-    <t>PASO FINAL</t>
-  </si>
-  <si>
     <t>ESTA ES UNA SOLUCIÓN INICIAL</t>
   </si>
   <si>
@@ -228,6 +225,189 @@
   </si>
   <si>
     <t>75 != 80 asi que añado 5</t>
+  </si>
+  <si>
+    <t>Dummy column</t>
+  </si>
+  <si>
+    <t>PASO FINAL - Introducir las variables iniciales</t>
+  </si>
+  <si>
+    <t>2  (15)</t>
+  </si>
+  <si>
+    <t>3  (5)</t>
+  </si>
+  <si>
+    <t>4 (20)</t>
+  </si>
+  <si>
+    <t>4 (10)</t>
+  </si>
+  <si>
+    <t>5 (15)</t>
+  </si>
+  <si>
+    <t>6 (5)</t>
+  </si>
+  <si>
+    <t>7 (5)</t>
+  </si>
+  <si>
+    <t>0 (5)</t>
+  </si>
+  <si>
+    <t>Coste mínimo transporte: 2*15 + 3*5 + 4*20 + 4*10 + 5*15 + 6*5 + 7*5 + 0*5 = 305</t>
+  </si>
+  <si>
+    <t>2 (15)</t>
+  </si>
+  <si>
+    <t>4 (5)</t>
+  </si>
+  <si>
+    <t>4 (30)</t>
+  </si>
+  <si>
+    <t>7 (10)</t>
+  </si>
+  <si>
+    <t>Coste mínimo transporte: 2*15 + 0*5 + 4*5 + 5*15 + 4*30 + 7*10 = 315</t>
+  </si>
+  <si>
+    <t>Penalización C</t>
+  </si>
+  <si>
+    <t>Penalización F</t>
+  </si>
+  <si>
+    <t>2 - 0 = 2</t>
+  </si>
+  <si>
+    <t>3 - 0 = 3</t>
+  </si>
+  <si>
+    <t>4 - 0 = 4</t>
+  </si>
+  <si>
+    <t>3 - 2 = 1</t>
+  </si>
+  <si>
+    <t>4 - 3 = 1</t>
+  </si>
+  <si>
+    <t>5 - 4 = 1</t>
+  </si>
+  <si>
+    <t>6 - 5 = 1</t>
+  </si>
+  <si>
+    <t>0 - 0 = 0</t>
+  </si>
+  <si>
+    <t>La demanda "dummy" queda exhausta</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La demanda 1 queda exhausta </t>
+  </si>
+  <si>
+    <t>2(15)</t>
+  </si>
+  <si>
+    <t>La capacidad 1 queda exhausta</t>
+  </si>
+  <si>
+    <t>3 (5)</t>
+  </si>
+  <si>
+    <t>4 - 4 = 0</t>
+  </si>
+  <si>
+    <t>5 - 5 = 0</t>
+  </si>
+  <si>
+    <t>6 - 6 = 0</t>
+  </si>
+  <si>
+    <t>La demanda 3 queda exhausta</t>
+  </si>
+  <si>
+    <t>min(30,30) = 30 --&gt; 30 - 30 = 0</t>
+  </si>
+  <si>
+    <t>7 - 6 = 1</t>
+  </si>
+  <si>
+    <t>La capacidad 3 queda exhausta</t>
+  </si>
+  <si>
+    <t>La capacidad 4 queda exhausta</t>
+  </si>
+  <si>
+    <t>La capacidad 2 queda exhausta</t>
+  </si>
+  <si>
+    <t>2 | 1 | 1 | - | - | - | - |</t>
+  </si>
+  <si>
+    <t>3 | 1 | 1 | 1 | 1 | 6 | 6 |</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 |  1 |  1 |  1 | - | - | - |</t>
+  </si>
+  <si>
+    <t>4 |  1 |  1 |  1 |  1 |  7 | - |</t>
+  </si>
+  <si>
+    <t>1
+1
+--
+--
+--
+--
+--</t>
+  </si>
+  <si>
+    <t>1
+1
+1
+0
+--
+--
+--</t>
+  </si>
+  <si>
+    <t>1
+1
+1
+0
+1
+--
+--</t>
+  </si>
+  <si>
+    <t>1
+1
+1
+0
+1
+1
+6</t>
+  </si>
+  <si>
+    <t>0
+--
+--
+--
+--
+--
+--</t>
+  </si>
+  <si>
+    <t>Coste mínimo transporte: 2*15 + 3*5 + 5*15 + 6*5 + 4*30 + 7*5 + 0*5 = 305</t>
   </si>
 </sst>
 </file>
@@ -291,13 +471,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,22 +800,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F64F4F-8B2F-40AF-A91C-2DC6B99A839E}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="65.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="65.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -649,9 +833,9 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -670,9 +854,9 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -691,9 +875,9 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -712,9 +896,9 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -733,9 +917,9 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -752,23 +936,23 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1</v>
@@ -783,10 +967,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -802,14 +989,17 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -825,11 +1015,14 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -845,11 +1038,14 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -865,11 +1061,14 @@
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,14 +1084,17 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>1</v>
@@ -907,10 +1109,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -926,14 +1131,17 @@
       <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -949,14 +1157,17 @@
       <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -972,11 +1183,14 @@
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -992,11 +1206,14 @@
       <c r="E22">
         <v>7</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,15 +1229,18 @@
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>1</v>
@@ -1035,10 +1255,13 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1054,14 +1277,17 @@
       <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1077,14 +1303,17 @@
       <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1100,11 +1329,14 @@
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1120,11 +1352,14 @@
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,14 +1375,17 @@
       <c r="E31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>1</v>
@@ -1162,10 +1400,13 @@
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1181,14 +1422,17 @@
       <c r="E35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1204,14 +1448,17 @@
       <c r="E36" s="2">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -1227,11 +1474,14 @@
       <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -1247,11 +1497,14 @@
       <c r="E38">
         <v>7</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1267,14 +1520,17 @@
       <c r="E39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>1</v>
@@ -1289,10 +1545,13 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1308,14 +1567,17 @@
       <c r="E43" s="2">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1331,14 +1593,17 @@
       <c r="E44" s="2">
         <v>0</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -1354,11 +1619,14 @@
       <c r="E45">
         <v>6</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -1374,11 +1642,14 @@
       <c r="E46">
         <v>7</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1394,14 +1665,17 @@
       <c r="E47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>1</v>
@@ -1416,10 +1690,13 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -1435,14 +1712,17 @@
       <c r="E51" s="2">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -1458,14 +1738,17 @@
       <c r="E52" s="2">
         <v>0</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -1481,11 +1764,14 @@
       <c r="E53">
         <v>6</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>4</v>
       </c>
@@ -1501,11 +1787,14 @@
       <c r="E54">
         <v>7</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -1521,14 +1810,17 @@
       <c r="E55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>1</v>
@@ -1543,10 +1835,13 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -1562,14 +1857,17 @@
       <c r="E59" s="2">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -1585,14 +1883,17 @@
       <c r="E60" s="2">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -1608,11 +1909,14 @@
       <c r="E61" s="2">
         <v>5</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -1628,11 +1932,14 @@
       <c r="E62">
         <v>7</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -1648,14 +1955,17 @@
       <c r="E63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F63" s="1">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>1</v>
@@ -1670,10 +1980,13 @@
         <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -1689,14 +2002,17 @@
       <c r="E67" s="2">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -1712,14 +2028,17 @@
       <c r="E68" s="2">
         <v>0</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -1735,11 +2054,14 @@
       <c r="E69" s="2">
         <v>5</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>4</v>
       </c>
@@ -1755,11 +2077,14 @@
       <c r="E70" s="2">
         <v>5</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -1775,14 +2100,17 @@
       <c r="E71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F71" s="1">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>1</v>
@@ -1797,10 +2125,13 @@
         <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -1816,11 +2147,14 @@
       <c r="E75" s="2">
         <v>0</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -1836,11 +2170,14 @@
       <c r="E76" s="2">
         <v>0</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -1856,11 +2193,14 @@
       <c r="E77" s="2">
         <v>5</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>4</v>
       </c>
@@ -1876,11 +2216,14 @@
       <c r="E78" s="2">
         <v>5</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2">
+        <v>5</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -1896,14 +2239,17 @@
       <c r="E79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1">
         <v>1</v>
@@ -1918,93 +2264,108 @@
         <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1</v>
       </c>
-      <c r="B83" s="2">
-        <v>15</v>
-      </c>
-      <c r="C83" s="2">
-        <v>5</v>
+      <c r="B83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D83" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E83" s="2">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2</v>
       </c>
       <c r="B84" s="2">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D84" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E84" s="2">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>3</v>
       </c>
       <c r="B85" s="2">
-        <v>0</v>
-      </c>
-      <c r="C85" s="2">
-        <v>10</v>
-      </c>
-      <c r="D85" s="2">
-        <v>15</v>
-      </c>
-      <c r="E85" s="2">
-        <v>5</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C86" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>5</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -2020,7 +2381,15 @@
       <c r="E87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1">
+        <v>5</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2030,22 +2399,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36448D51-4F37-48DE-A54A-4E69FBBFF396}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" customWidth="1"/>
-    <col min="7" max="7" width="43.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" customWidth="1"/>
+    <col min="8" max="8" width="43.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2063,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2083,7 +2453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2103,7 +2473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2123,7 +2493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2143,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2160,21 +2530,21 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1</v>
@@ -2189,10 +2559,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2208,14 +2581,17 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2231,11 +2607,14 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -2251,11 +2630,14 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -2271,11 +2653,14 @@
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2291,14 +2676,17 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>1</v>
@@ -2313,10 +2701,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2332,14 +2723,17 @@
       <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="G19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -2355,11 +2749,14 @@
       <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -2375,11 +2772,14 @@
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -2395,11 +2795,14 @@
       <c r="E22">
         <v>7</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2415,14 +2818,17 @@
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>1</v>
@@ -2437,10 +2843,13 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2456,60 +2865,69 @@
       <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -2525,11 +2943,14 @@
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -2545,14 +2966,17 @@
       <c r="E31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>1</v>
@@ -2567,10 +2991,13 @@
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2586,14 +3013,17 @@
       <c r="E35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -2609,11 +3039,14 @@
       <c r="E36" s="5">
         <v>6</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -2629,11 +3062,14 @@
       <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -2649,11 +3085,14 @@
       <c r="E38">
         <v>7</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2669,14 +3108,17 @@
       <c r="E39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1">
         <v>1</v>
@@ -2691,10 +3133,13 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -2710,14 +3155,17 @@
       <c r="E43" s="2">
         <v>0</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -2733,14 +3181,17 @@
       <c r="E44" s="5">
         <v>6</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -2756,11 +3207,14 @@
       <c r="E45" s="2">
         <v>0</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -2776,11 +3230,14 @@
       <c r="E46" s="5">
         <v>7</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -2796,14 +3253,17 @@
       <c r="E47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>1</v>
@@ -2818,10 +3278,13 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -2837,14 +3300,17 @@
       <c r="E51" s="2">
         <v>0</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -2860,14 +3326,17 @@
       <c r="E52" s="5">
         <v>6</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
         <v>53</v>
       </c>
-      <c r="G52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -2883,11 +3352,14 @@
       <c r="E53" s="2">
         <v>0</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>4</v>
       </c>
@@ -2903,11 +3375,14 @@
       <c r="E54" s="5">
         <v>7</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -2923,14 +3398,17 @@
       <c r="E55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>1</v>
@@ -2945,10 +3423,13 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -2964,14 +3445,17 @@
       <c r="E59" s="2">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -2987,14 +3471,17 @@
       <c r="E60" s="2">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -3010,14 +3497,17 @@
       <c r="E61" s="2">
         <v>0</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -3033,11 +3523,14 @@
       <c r="E62">
         <v>7</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -3053,14 +3546,17 @@
       <c r="E63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
         <v>1</v>
@@ -3075,10 +3571,13 @@
         <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -3094,11 +3593,14 @@
       <c r="E67" s="2">
         <v>0</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3114,11 +3616,14 @@
       <c r="E68" s="2">
         <v>0</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -3134,11 +3639,14 @@
       <c r="E69" s="2">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>4</v>
       </c>
@@ -3154,11 +3662,14 @@
       <c r="E70" s="2">
         <v>10</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -3174,14 +3685,17 @@
       <c r="E71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1">
         <v>1</v>
@@ -3196,93 +3710,108 @@
         <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>1</v>
       </c>
-      <c r="B75" s="2">
-        <v>15</v>
+      <c r="B75" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C75" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E75" s="2">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2</v>
       </c>
       <c r="B76" s="2">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2">
-        <v>5</v>
-      </c>
-      <c r="D76" s="2">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>3</v>
       </c>
       <c r="B77" s="2">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D77" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>4</v>
       </c>
       <c r="B78" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C78" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2">
-        <v>10</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -3298,7 +3827,15 @@
       <c r="E79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="1">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3307,20 +3844,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA3B73E-54D1-418D-B20A-9668680A1AAD}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="43.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="8" width="21.54296875" customWidth="1"/>
+    <col min="9" max="9" width="43.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -3338,7 +3876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3358,7 +3896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3378,7 +3916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3398,7 +3936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3418,7 +3956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3435,21 +3973,21 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1</v>
@@ -3464,10 +4002,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3483,11 +4027,14 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -3503,11 +4050,14 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -3523,11 +4073,14 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -3543,11 +4096,14 @@
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3563,77 +4119,83 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -3644,773 +4206,1390 @@
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
         <v>7</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
         <v>7</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>6</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
         <v>7</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2">
-        <v>15</v>
-      </c>
-      <c r="C43" s="2">
-        <v>5</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>2</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2">
-        <v>20</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>4</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
         <v>7</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
-      <c r="B51" s="2">
-        <v>15</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>2</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>20</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>6</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>4</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-      <c r="E54">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
         <v>7</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="F59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
-        <v>4</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2">
-        <v>15</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>2</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
-        <v>20</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
-        <v>0</v>
-      </c>
-      <c r="C61" s="2">
-        <v>10</v>
-      </c>
-      <c r="D61" s="2">
-        <v>15</v>
-      </c>
-      <c r="E61" s="2">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>4</v>
-      </c>
-      <c r="B62" s="2">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-      <c r="E62">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="1">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
         <v>7</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="1">
         <v>7</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2">
-        <v>15</v>
-      </c>
-      <c r="C67" s="2">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2">
-        <v>20</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>3</v>
-      </c>
-      <c r="B69" s="2">
-        <v>0</v>
-      </c>
-      <c r="C69" s="2">
-        <v>10</v>
-      </c>
-      <c r="D69" s="2">
-        <v>15</v>
-      </c>
-      <c r="E69" s="2">
-        <v>5</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>4</v>
-      </c>
-      <c r="B70" s="2">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2">
-        <v>5</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="1">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="1">
+        <v>6</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1">
+        <v>5</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ficheros/Soluciones.xlsx
+++ b/Ficheros/Soluciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SAGEMath\MASI\Ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9386BC8D-3545-479C-87BC-42E1E2B2B615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466B00E-808E-4498-906B-35038E6AB884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19070" yWindow="1710" windowWidth="19040" windowHeight="17800" activeTab="2" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
+    <workbookView xWindow="7900" yWindow="0" windowWidth="25870" windowHeight="18340" activeTab="1" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
   </bookViews>
   <sheets>
     <sheet name="North-West Method" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="129">
   <si>
     <t>&gt;= 15</t>
   </si>
@@ -143,15 +143,9 @@
     <t>min(20,30) = 20 --&gt; 30 - 20 = 10</t>
   </si>
   <si>
-    <t>La capacidad de 1 está exhausta</t>
-  </si>
-  <si>
     <t xml:space="preserve">La capacidad 2 está exhausta </t>
   </si>
   <si>
-    <t>La demada de 1 está exhausta</t>
-  </si>
-  <si>
     <t>min(30,10) = 10 --&gt; 30 - 10 = 20</t>
   </si>
   <si>
@@ -305,19 +299,10 @@
     <t>0 - 0 = 0</t>
   </si>
   <si>
-    <t>La demanda "dummy" queda exhausta</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t xml:space="preserve">La demanda 1 queda exhausta </t>
-  </si>
-  <si>
     <t>2(15)</t>
-  </si>
-  <si>
-    <t>La capacidad 1 queda exhausta</t>
   </si>
   <si>
     <t>3 (5)</t>
@@ -408,6 +393,66 @@
   </si>
   <si>
     <t>Coste mínimo transporte: 2*15 + 3*5 + 5*15 + 6*5 + 4*30 + 7*5 + 0*5 = 305</t>
+  </si>
+  <si>
+    <t>La resta de los menores</t>
+  </si>
+  <si>
+    <t>&lt;-- maxima diferencia; calculo min(10,5) = 5 --&gt; 10 - 5 = 5</t>
+  </si>
+  <si>
+    <t>&lt;-- 5 se carga en la columna dummy lo que satisface la demanda al completo</t>
+  </si>
+  <si>
+    <t>&lt;-- maxima diferencia; min(20,15) = 15 --&gt; 20 - 15 = 5</t>
+  </si>
+  <si>
+    <t>&lt;-- 15 se carga en la columna 1 lo que satisface la demanda del cliente 1 y ajusta la capacidad del almacen 1 a 20 - 15 = 5</t>
+  </si>
+  <si>
+    <t>etc…</t>
+  </si>
+  <si>
+    <t>El minimo se carga en la posición consultada</t>
+  </si>
+  <si>
+    <t>Almacen 1</t>
+  </si>
+  <si>
+    <t>Almacen 2</t>
+  </si>
+  <si>
+    <t>Almacen 3</t>
+  </si>
+  <si>
+    <t>Almacen 4</t>
+  </si>
+  <si>
+    <t>Cliente 1</t>
+  </si>
+  <si>
+    <t>Cliente 2</t>
+  </si>
+  <si>
+    <t>Cliente 3</t>
+  </si>
+  <si>
+    <t>Cliente 4</t>
+  </si>
+  <si>
+    <t>Comparar Almacen1 con Cliente1</t>
+  </si>
+  <si>
+    <t>La demada de 1 queda satisfecha y se compara Almacen1 con Cliente2</t>
+  </si>
+  <si>
+    <t>El resultado actualiza la capacidad de almacen 1</t>
+  </si>
+  <si>
+    <t>El resultado actualiza la capacidad de almacen 2</t>
+  </si>
+  <si>
+    <t>La capacidad de 1 queda exhausta</t>
   </si>
 </sst>
 </file>
@@ -802,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F64F4F-8B2F-40AF-A91C-2DC6B99A839E}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,19 +861,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -836,8 +881,8 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -857,8 +902,8 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -878,8 +923,8 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -899,8 +944,8 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -936,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -954,28 +999,28 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1</v>
+      <c r="A11" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -996,12 +1041,12 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>2</v>
+      <c r="A12" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1021,10 +1066,13 @@
       <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>3</v>
+      <c r="A13" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1044,10 +1092,13 @@
       <c r="G13" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>4</v>
+      <c r="A14" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1066,6 +1117,9 @@
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1096,57 +1150,57 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
+      <c r="B18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2</v>
+      <c r="A20" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1164,15 +1218,15 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>3</v>
+      <c r="A21" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1189,13 +1243,16 @@
       <c r="G21" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>4</v>
+      <c r="A22" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1211,6 +1268,9 @@
       </c>
       <c r="G22" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1242,40 +1302,40 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4</v>
+      <c r="B26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
+      <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -1284,15 +1344,15 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>2</v>
+      <c r="A28" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B28" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1314,11 +1374,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>3</v>
+      <c r="A29" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B29" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1337,11 +1397,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>4</v>
+      <c r="A30" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B30" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1387,28 +1447,28 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
+      <c r="B34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>1</v>
+      <c r="A35" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B35" s="2">
         <v>15</v>
@@ -1429,12 +1489,12 @@
         <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>2</v>
+      <c r="A36" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -1455,12 +1515,12 @@
         <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>3</v>
+      <c r="A37" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -1482,8 +1542,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>4</v>
+      <c r="A38" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -1532,28 +1592,28 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
+      <c r="B42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>1</v>
+      <c r="A43" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B43" s="2">
         <v>15</v>
@@ -1574,12 +1634,12 @@
         <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>2</v>
+      <c r="A44" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -1604,8 +1664,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>3</v>
+      <c r="A45" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -1627,8 +1687,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>4</v>
+      <c r="A46" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -1677,28 +1737,28 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>4</v>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>1</v>
+      <c r="A51" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B51" s="2">
         <v>15</v>
@@ -1719,12 +1779,12 @@
         <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>2</v>
+      <c r="A52" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -1745,12 +1805,12 @@
         <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>3</v>
+      <c r="A53" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -1772,8 +1832,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>4</v>
+      <c r="A54" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -1822,28 +1882,28 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1">
-        <v>4</v>
+      <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>1</v>
+      <c r="A59" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B59" s="2">
         <v>15</v>
@@ -1864,12 +1924,12 @@
         <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>2</v>
+      <c r="A60" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -1890,12 +1950,12 @@
         <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>3</v>
+      <c r="A61" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -1917,8 +1977,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>4</v>
+      <c r="A62" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -1953,7 +2013,7 @@
         <v>31</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F63" s="1">
         <v>5</v>
@@ -1967,28 +2027,28 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
-        <v>4</v>
+      <c r="B66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>1</v>
+      <c r="A67" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B67" s="2">
         <v>15</v>
@@ -2009,12 +2069,12 @@
         <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>2</v>
+      <c r="A68" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -2035,12 +2095,12 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>3</v>
+      <c r="A69" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -2062,8 +2122,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>4</v>
+      <c r="A70" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -2107,33 +2167,33 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="B74" s="1">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1">
-        <v>4</v>
+      <c r="B74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>1</v>
+      <c r="A75" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B75" s="2">
         <v>15</v>
@@ -2155,8 +2215,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>2</v>
+      <c r="A76" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -2178,8 +2238,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>3</v>
+      <c r="A77" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -2201,8 +2261,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>4</v>
+      <c r="A78" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -2246,120 +2306,120 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
-      <c r="B82" s="1">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2</v>
-      </c>
-      <c r="D82" s="1">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1">
-        <v>4</v>
+      <c r="B82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>1</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4</v>
+      </c>
+      <c r="E83" s="2">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="2">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D84" s="2">
+        <v>5</v>
+      </c>
+      <c r="E84" s="2">
+        <v>6</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="2">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="2">
-        <v>4</v>
-      </c>
-      <c r="E83" s="2">
-        <v>5</v>
-      </c>
-      <c r="F83" s="2">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>2</v>
-      </c>
-      <c r="B84" s="2">
-        <v>3</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D84" s="2">
-        <v>5</v>
-      </c>
-      <c r="E84" s="2">
-        <v>6</v>
-      </c>
-      <c r="F84" s="2">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>3</v>
-      </c>
-      <c r="B85" s="2">
-        <v>3</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F85" s="2">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>4</v>
-      </c>
-      <c r="B86" s="2">
-        <v>4</v>
-      </c>
-      <c r="C86" s="2">
-        <v>5</v>
-      </c>
-      <c r="D86" s="2">
-        <v>6</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>5</v>
@@ -2388,7 +2448,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36448D51-4F37-48DE-A54A-4E69FBBFF396}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
@@ -2415,7 +2475,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2530,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2559,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
@@ -2588,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2701,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>6</v>
@@ -2727,10 +2787,10 @@
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2843,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>6</v>
@@ -2872,7 +2932,7 @@
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2898,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2924,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -2991,7 +3051,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>6</v>
@@ -3020,7 +3080,7 @@
         <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -3133,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>6</v>
@@ -3162,7 +3222,7 @@
         <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -3188,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -3245,7 +3305,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>0</v>
@@ -3278,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>6</v>
@@ -3307,7 +3367,7 @@
         <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3330,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -3423,7 +3483,7 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>6</v>
@@ -3452,7 +3512,7 @@
         <v>32</v>
       </c>
       <c r="H59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -3478,7 +3538,7 @@
         <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3504,7 +3564,7 @@
         <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -3571,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>6</v>
@@ -3692,7 +3752,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -3710,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>6</v>
@@ -3721,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2">
         <v>3</v>
@@ -3733,13 +3793,13 @@
         <v>5</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -3750,10 +3810,10 @@
         <v>3</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E76" s="2">
         <v>6</v>
@@ -3773,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2">
         <v>5</v>
@@ -3802,7 +3862,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
@@ -3834,7 +3894,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3846,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA3B73E-54D1-418D-B20A-9668680A1AAD}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView topLeftCell="A61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3855,7 +3915,7 @@
     <col min="1" max="1" width="12.90625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="8" width="21.54296875" customWidth="1"/>
-    <col min="9" max="9" width="43.81640625" customWidth="1"/>
+    <col min="9" max="9" width="65.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -3973,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -4002,13 +4062,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -4127,7 +4187,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4152,13 +4212,13 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -4184,10 +4244,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -4213,10 +4270,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -4242,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -4268,7 +4322,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -4295,25 +4352,27 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -4335,13 +4394,13 @@
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -4367,10 +4426,10 @@
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -4396,10 +4455,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -4425,7 +4481,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -4451,7 +4507,10 @@
         <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="I32" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -4478,25 +4537,27 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -4518,13 +4579,13 @@
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -4532,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -4550,10 +4611,10 @@
         <v>29</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -4579,10 +4640,10 @@
         <v>3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -4608,7 +4669,10 @@
         <v>4</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="I40" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -4628,13 +4692,13 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -4661,25 +4725,27 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -4701,13 +4767,13 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -4715,10 +4781,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -4733,10 +4799,10 @@
         <v>32</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -4762,10 +4828,10 @@
         <v>3</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -4791,7 +4857,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -4811,13 +4877,13 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -4844,22 +4910,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -4884,13 +4950,13 @@
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -4898,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -4916,10 +4982,10 @@
         <v>32</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -4945,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s">
         <v>30</v>
@@ -4959,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -4974,7 +5040,7 @@
         <v>32</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -4994,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -5027,22 +5093,22 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -5067,13 +5133,13 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -5081,10 +5147,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -5099,10 +5165,10 @@
         <v>32</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -5116,7 +5182,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -5131,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -5142,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -5157,7 +5223,7 @@
         <v>32</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -5177,7 +5243,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>29</v>
@@ -5210,22 +5276,22 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -5250,13 +5316,13 @@
         <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -5264,10 +5330,10 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -5282,10 +5348,10 @@
         <v>32</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -5299,7 +5365,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E75">
         <v>6</v>
@@ -5314,7 +5380,7 @@
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -5325,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -5340,7 +5406,7 @@
         <v>32</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -5357,16 +5423,16 @@
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -5383,7 +5449,7 @@
         <v>31</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -5393,27 +5459,27 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E79" s="1">
         <v>6</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -5431,13 +5497,13 @@
         <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -5445,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -5463,7 +5529,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -5477,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -5489,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -5500,7 +5566,7 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -5515,7 +5581,7 @@
         <v>4</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -5532,16 +5598,16 @@
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -5568,30 +5634,31 @@
     </row>
     <row r="88" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ficheros/Soluciones.xlsx
+++ b/Ficheros/Soluciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SAGEMath\MASI\Ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466B00E-808E-4498-906B-35038E6AB884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60024031-90BC-45DF-8057-08DA6DFE5E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="0" windowWidth="25870" windowHeight="18340" activeTab="1" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
+    <workbookView xWindow="7900" yWindow="0" windowWidth="25870" windowHeight="18340" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
   </bookViews>
   <sheets>
     <sheet name="North-West Method" sheetId="1" r:id="rId1"/>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F64F4F-8B2F-40AF-A91C-2DC6B99A839E}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2461,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36448D51-4F37-48DE-A54A-4E69FBBFF396}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Ficheros/Soluciones.xlsx
+++ b/Ficheros/Soluciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SAGEMath\MASI\Ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60024031-90BC-45DF-8057-08DA6DFE5E1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7362FF69-8E70-4DA9-96EC-BFCACD462C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="0" windowWidth="25870" windowHeight="18340" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
+    <workbookView xWindow="11520" yWindow="480" windowWidth="25870" windowHeight="18340" activeTab="2" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
   </bookViews>
   <sheets>
     <sheet name="North-West Method" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="129">
   <si>
     <t>&gt;= 15</t>
   </si>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F64F4F-8B2F-40AF-A91C-2DC6B99A839E}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G90" sqref="A82:G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2461,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36448D51-4F37-48DE-A54A-4E69FBBFF396}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3906,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA3B73E-54D1-418D-B20A-9668680A1AAD}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G91" sqref="A82:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4500,8 +4500,8 @@
       <c r="E32">
         <v>7</v>
       </c>
-      <c r="F32">
-        <v>5</v>
+      <c r="F32" t="s">
+        <v>70</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>29</v>

--- a/Ficheros/Soluciones.xlsx
+++ b/Ficheros/Soluciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SAGEMath\MASI\Ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7362FF69-8E70-4DA9-96EC-BFCACD462C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392D204-5047-4383-8F0F-D27B059B1EEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="480" windowWidth="25870" windowHeight="18340" activeTab="2" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
+    <workbookView xWindow="8500" yWindow="1380" windowWidth="25870" windowHeight="18340" activeTab="1" xr2:uid="{8C5FD1BC-D174-4370-BFAB-40543485D895}"/>
   </bookViews>
   <sheets>
     <sheet name="North-West Method" sheetId="1" r:id="rId1"/>
@@ -2461,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36448D51-4F37-48DE-A54A-4E69FBBFF396}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:G82"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3906,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA3B73E-54D1-418D-B20A-9668680A1AAD}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G91" sqref="A82:G91"/>
     </sheetView>
   </sheetViews>
